--- a/UAT-Testcase-CheckList.xlsx
+++ b/UAT-Testcase-CheckList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7819D9C-D6A8-481E-9E0E-1DBF451424CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD04E54-DC4E-481E-9267-725B95E3FB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="204">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -175,54 +175,21 @@
     </r>
   </si>
   <si>
-    <t>พนักงานลงเวลาเข้างาน Late</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาเข้างาน On Time</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาเข้างานล่วงหน้า</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาเข้างานย้อนหลัง</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาเข้างานซ้ำ</t>
-  </si>
-  <si>
     <t>TC-CHECK-002</t>
   </si>
   <si>
-    <t>TC-CHECK-003</t>
-  </si>
-  <si>
     <t>TC-CHECK-004</t>
   </si>
   <si>
     <t>TC-CHECK-005</t>
   </si>
   <si>
-    <t>TC-CHECK-006</t>
-  </si>
-  <si>
     <t>TC-CHECK-007</t>
   </si>
   <si>
     <t>ลงเวลาออกงาน</t>
   </si>
   <si>
-    <t>TC-CHECK-008</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาออกงานล่วงหน้า</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาออกงานย้อนหลัง</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาออกงานซ้ำ</t>
-  </si>
-  <si>
     <t>TC-CHECK-009</t>
   </si>
   <si>
@@ -233,9 +200,6 @@
   </si>
   <si>
     <t>TC-CHECK-012</t>
-  </si>
-  <si>
-    <t>TC-CHECK-013</t>
   </si>
   <si>
     <t>TC-CHECK-014</t>
@@ -243,18 +207,6 @@
   <si>
     <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน -
 ออกงาน ซึ่งสามารถลงเวลาเข้างานตามเวลาปกติได้</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาเข้างานล่วงหน้าภายในวันทำงาน</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาเข้างานย้อนหลังภายในวันทำงาน</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาออกงานล่วงหน้าภายในวันทำงาน</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาออกงานย้อนหลังภายในวันทำงาน</t>
   </si>
   <si>
     <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
@@ -283,12 +235,6 @@
 ซึ่งสามารถลงเวลาเข้างานซ้ำได้</t>
   </si>
   <si>
-    <t>พนักงานลงเวลาออกงาน Finished Work</t>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาออกงาน Unfinished Work</t>
-  </si>
-  <si>
     <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
 ซึ่งสามารถลงเวลาออกงานซ้ำได้</t>
   </si>
@@ -323,92 +269,6 @@
   </si>
   <si>
     <t>TC-CHECK-016</t>
-  </si>
-  <si>
-    <t>1. Check : Check-IN
-    Date : 20-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-014
-2. Check : Check-Out
-    Date : 20-09-2021
-    Time : 19:00
-    Detail : TC-CHECK-014
-3. Check : Check-Out
-    Date : 20-09-2021
-    Time : 19:00
-    Detail : TC-CHECK-014</t>
-  </si>
-  <si>
-    <t>Date of Test : 21-09-2021</t>
-  </si>
-  <si>
-    <t>Version : v1.3</t>
-  </si>
-  <si>
-    <t>Check : Check-IN
-Date : 21-09-2021
-Time : 13:00
-Detail : TC-CHECK-003</t>
-  </si>
-  <si>
-    <t>Check : Check-IN
-Date : 21-09-2021
-Time : 08:00
-Detail : TC-CHECK-002</t>
-  </si>
-  <si>
-    <t>Check : Check-IN
-Date : 21-09-2021
-Time : 10:00
-Detail : TC-CHECK-001</t>
-  </si>
-  <si>
-    <t>Check : Check-IN
-Date : 21-09-2021
-Time : 11:00
-Detail : TC-CHECK-004</t>
-  </si>
-  <si>
-    <t>Check : Check-IN
-Date : 22-09-2021
-Time : 15:00
-Detail : TC-CHECK-005</t>
-  </si>
-  <si>
-    <t>Check : Check-IN
-Date : 20-09-2021
-Time : 9:00
-Detail : TC-CHECK-006</t>
-  </si>
-  <si>
-    <t>1. Check : Check-IN
-    Date : 21-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-008
-2. Check : Check-Out
-    Date : 21-09-2021
-    Time : 18:00
-    Detail : TC-CHECK-008</t>
-  </si>
-  <si>
-    <t>1. Check : Check-IN
-    Date : 21-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-009
-2. Check : Check-Out
-    Date : 21-09-2021
-    Time : 15:00
-    Detail : TC-CHECK-009</t>
-  </si>
-  <si>
-    <t>1. Check : Check-IN
-    Date : 20-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-013
-2. Check : Check-Out
-    Date : 20-09-2021
-    Time : 19:00
-    Detail : TC-CHECK-013</t>
   </si>
   <si>
     <t>ผู้ใช้ต้องผ่านกระบวนการเข้าสู่ระบบใน TC-CHECK-000 แล้ว
@@ -446,25 +306,267 @@
 และมีเวลาทำงานรวมต่ำกว่า 8.00 ชั่วโมง</t>
   </si>
   <si>
-    <t>1. Check : Check-IN
-    Date : 21-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-007
-2. Check : Check-IN
-    Date : 21-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-007</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างาน Late</t>
+    <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
+ซึ่งสามารถลงเวลาออกงานได้</t>
+  </si>
+  <si>
+    <t>การแจ้งเตือน</t>
+  </si>
+  <si>
+    <t>TC-CHECK-018</t>
+  </si>
+  <si>
+    <t>อื่น ๆ</t>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
+ซึ่งสามารถยกเลิกการลงเวลาเข้างาน - ออกงานได้</t>
+  </si>
+  <si>
+    <t>HR &amp; Admin Role</t>
+  </si>
+  <si>
+    <t>TC-CHECK-020</t>
+  </si>
+  <si>
+    <t>TC-CHECK-021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาเข้างาน Late สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาเข้างาน On Time สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>พนักงานลงเวลาเข้างานซ้ำสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาออกงาน Finished Work สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาออกงาน Unfinished Work สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>พนักงานลงเวลาออกงานย้อนหลังภายในวันทำงานสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาออกงานของวันพรุ่งนี้ไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาออกงานของเมื่อวานไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาออกงานซ้ำสำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาออกงานสำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานกด Cancel สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin แก้ไขข้อมูลเวลาสำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาเข้างานย้อนหลังภายในวันทำงานสำเร็จ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาเข้างานล่วงหน้าของวันพรุ่งนี้ไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาเข้างานของเมื่อวานย้อนหลังไม่สำเร็จ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานลงเวลาออกงานล่วงหน้าภายในวันทำงานไม่สำเร็จ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างาน Late สำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -487,7 +589,7 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานลงเวลาเข้างาน On Time</t>
+      <t>1. พนักงานลงเวลาเข้างาน On Time สำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -502,15 +604,18 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างานล่วงหน้าภายในวันทำงาน</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างานย้อนหลังภายในวันทำงานสำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -525,15 +630,230 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างานย้อนหลังภายในวันทำงาน</t>
+    <t>TC-CHECK-022</t>
+  </si>
+  <si>
+    <t>TC-CHECK-024</t>
+  </si>
+  <si>
+    <t>TC-CHECK-026</t>
+  </si>
+  <si>
+    <t>TC-CHECK-027</t>
+  </si>
+  <si>
+    <t>TC-CHECK-028</t>
+  </si>
+  <si>
+    <t>TC-CHECK-029</t>
+  </si>
+  <si>
+    <t>ค้นหา</t>
+  </si>
+  <si>
+    <t>พนักงานค้นหาตามวันที่สำเร็จ</t>
+  </si>
+  <si>
+    <t>พนักงานค้นหาตามเดือนสำเร็จ</t>
+  </si>
+  <si>
+    <t>พนักงานค้นหาตามปีสำเร็จ</t>
+  </si>
+  <si>
+    <t>TC-CHECK-030</t>
+  </si>
+  <si>
+    <t>HR ค้นหาตามรายชื่อสำเร็จ</t>
+  </si>
+  <si>
+    <t>Date : 01-01-2021 to 31-12-2021</t>
+  </si>
+  <si>
+    <t>Date : 01-09-2021 to 30-09-2021</t>
+  </si>
+  <si>
+    <t>TC-CHECK-031</t>
+  </si>
+  <si>
+    <t>TC-CHECK-032</t>
+  </si>
+  <si>
+    <t>Date : 14-09-2021 to 14-09-2021</t>
+  </si>
+  <si>
+    <t>ดาวน์โหลดเอกสาร</t>
+  </si>
+  <si>
+    <t>TC-CHECK-033</t>
+  </si>
+  <si>
+    <t>พนักงานดาวน์โหลดเอกสารสำเร็จ</t>
+  </si>
+  <si>
+    <t>HR ดาวน์โหลดเอกสารสำเร็จ</t>
+  </si>
+  <si>
+    <t>Check : Check-IN
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <t>Check : Check-IN
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-002</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. พนักงานลงเวลาเข้างาน Late สำเร็จ
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "11:15"
+Working : "Check - In", Status : "Late"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. พนักงานลงเวลาเข้างาน Late สำเร็จ
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
+Working : "Check - In", Status : "Late"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างาน On Time สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ", "TC-CHECK-002"
+Working : "Check - In", Status : "On Time"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างาน On Time สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "08:17", "TC-CHECK-002"
+Working : "Check - In", Status : "On Time"</t>
+    </r>
+  </si>
+  <si>
+    <t>Check : Check-IN
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-004</t>
+  </si>
+  <si>
+    <t>Check : Check-IN
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-005</t>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาเข้างานย้อนหลังภายในวันทำงานสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "09:22", "TC-CHECK-005"
+Working : "Check - In", Status : "Late"</t>
+    </r>
+  </si>
+  <si>
+    <t>Check : Check-IN
+Date : วันที่ก่อนวันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างานล่วงหน้าของวันพรุ่งนี้ไม่สำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -556,7 +876,50 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานลงเวลาเข้างานล่วงหน้า</t>
+      <t>1. พนักงานลงเวลาเข้างานล่วงหน้าของวันพรุ่งนี้ไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!" ,
+"Can't Check-in In Future."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาเข้างานย้อนหลังภายในวันทำงานสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ", "TC-CHECK-005"
+Working : "Check - In", Status : "On Time" หรือ "Late"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างานของเมื่อวานย้อนหลังไม่สำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -571,38 +934,45 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างานย้อนหลัง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กรอกข้อมูลตามที่ระบุใน Input Data
-   1.2 กดปุ่ม Accept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างานซ้ำ</t>
+    <t>Check : Check-IN
+Date : วันที่หลังวันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างานของเมื่อวานย้อนหลังไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!" ,
+"Can't Check-in In Future."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาเข้างานซ้ำสำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -628,33 +998,154 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">1. พนักงานลงเวลาเข้างาน Late
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
-User : "test_it_roles", Type : "เข้างาน",
-Work Time : "21-Sep-2021", "10.00", "TC-CHECK-001"
-Working : "Check - In", Status : "Late"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างาน Late</t>
+      <t>1. พนักงานลงเวลาออกงาน Finished Work สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
+   1.2 กดปุ่ม Accept
+   1.3 กดปุ่ม Check in/Check out
+   1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
+   1.5 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงาน Unfinished Work สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
+   1.2 กดปุ่ม Accept
+   1.3 กดปุ่ม Check in/Check out
+   1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
+   1.5 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <t>Check : Check-Out
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-014</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานย้อนหลังภายในวันทำงานสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
+   1.2 กดปุ่ม Accept
+   1.3 กดปุ่ม Check in/Check out
+   1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
+   1.5 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+    Detail : TC-CHECK-015
+2. Check : Check-Out
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+    Detail : TC-CHECK-015</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานของวันพรุ่งนี้ไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.2 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานของวันพรุ่งนี้ไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!",
+"Can't Check-out In Future."</t>
+    </r>
+  </si>
+  <si>
+    <t>Check : Check-In
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <t>1. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+2. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาเข้างานซ้ำสำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -667,138 +1158,357 @@
    1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
 User : "test_it_roles", Type : "เข้างาน",
-Work Time : "21-Sep-2021", "10.00", "TC-CHECK-001"
-Working : "Check - In", Status : "Late"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างาน On Time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
-User : "test_it_roles", Type : "เข้างาน",
-Work Time : "21-Sep-2021", "08.00", "TC-CHECK-002"
-Working : "Check - In", Status : "On Time"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างานล่วงหน้าภายในวันทำงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!" ,
-"Can't Check-in In Future."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลงเวลาเข้างานย้อนหลังภายในวันทำงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
-User : "test_it_roles", Type : "เข้างาน",
-Work Time : "21-Sep-2021", "11.00", "TC-CHECK-004"
-Working : "Check - In", Status : "Late"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างานล่วงหน้า</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!" ,
-"Can't Check-in In Future."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1. พนักงานลงเวลาเข้างานซ้ำ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
-User : "test_it_roles", Type : "เข้างาน",
-Work Time : "21-Sep-2021", "9.00", "TC-CHECK-007"
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
 Working : "Check - In", Status : "Late"
    1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
    1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
    1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
 User : "test_it_roles", Type : "เข้างาน",
-Work Time : "21-Sep-2021", "9.00", "TC-CHECK-007"
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
 Working : "Check - In", Status : "Late"</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงาน Finished Work</t>
+      <t>1. พนักงานลงเวลาเข้างานซ้ำสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "11:40"
+Working : "Check - In", Status : "Late"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "11:40"
+Working : "Check - In", Status : "Late"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาก่อนขณะทำการทดสอบ
+    Detail : TC-CHECK-011
+2. Check : Check-Out
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาออกงาน Finished Work สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "02:52", "TC-CHECK-011"
+Working : "Check - In", Status : "On Time"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน",
+Work Time : "11-Oct-2021", "11:53"
+Working : "8:01 hrs.", Status : "Finished Work"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาออกงาน Finished Work สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาก่อนขณะทำการทดสอบ", "TC-CHECK-011"
+Working : "Check - In", Status : "On Time"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
+Working :  มากกว่า "8:00 hrs.", Status : "Finished Work"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+    Detail : TC-CHECK-012
+2. Check : Check-Out
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาออกงาน Unfinished Work สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "10:56", "TC-CHECK-012"
+Working : "Check - In", Status : "Late"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน",
+Work Time : "11-Oct-2021", "11:56"
+Working : "1:00 hrs.", Status : "Unfinished Work"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาออกงาน Unfinished Work สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาก่อนขณะทำการทดสอบ", "TC-CHECK-012"
+Working : "Check - In", Status : "Late"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
+Working : "1:00 hrs.", Status : "Unfinished Work"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานล่วงหน้าภายในวันทำงานไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.2 กดปุ่ม Accept
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานล่วงหน้าภายในวันทำงานไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!",
+"Can't Check-out In Future."</t>
+    </r>
+  </si>
+  <si>
+    <t>ผู้ใช้ต้องผ่านกระบวนการเข้าสู่ระบบใน TC-CHECK-000 แล้ว
+ผู้ใช้ต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลงเวลาเข้างาน - ออกงาน
+และกำหนดเวลาเข้างานน้อยกว่าเวลาปัจจุบัน 6 ชั่วโมง
+กำหนดเวลาออกงานน้อยกว่าเวลาปัจจุบัน 2 ชั่วโมง</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานย้อนหลังภายในวันทำงาน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาก่อนขณะทำการทดสอบ", "TC-CHECK-015"
+Working : "Check - In", Status : "On Time" หรือ "Late"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาก่อนขณะทำการทดสอบ", "TC-CHECK-015"
+Working : น้อยกว่า "8:00 hrs.", Status : "Unfinished Work"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานย้อนหลังภายในวันทำงาน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "08:01", "TC-CHECK-015"
+Working : "Check - In", Status : "On Time"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน",
+Work Time : "11-Oct-2021", "13:02", "TC-CHECK-015"
+Working : "4:01 hrs.", Status : "Unfinished Work"</t>
+    </r>
+  </si>
+  <si>
+    <t>Check : Check-Out
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-016</t>
+  </si>
+  <si>
+    <t>Check : Check-Out
+Date : วันที่ก่อนขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานของเมื่อวานไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.2 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานของเมื่อวานไม่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!",
+"Can't Check-out In Last."</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+2. Check : Check-Out
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+3. Check : Check-Out
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานซ้ำสำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -812,97 +1522,555 @@
    1.2 กดปุ่ม Accept
    1.3 กดปุ่ม Check in/Check out
    1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
-   1.5 กดปุ่ม Accept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงาน Unfinished Work</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
-   1.2 กดปุ่ม Accept
-   1.3 กดปุ่ม Check in/Check out
-   1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
-   1.5 กดปุ่ม Accept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงานย้อนหลังภายในวันทำงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
-   1.2 กดปุ่ม Accept
-   1.3 กดปุ่ม Check in/Check out
-   1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
-   1.5 กดปุ่ม Accept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงานย้อนหลัง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
-   1.2 กดปุ่ม Accept
-   1.3 กดปุ่ม Check in/Check out
-   1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
-   1.5 กดปุ่ม Accept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงานซ้ำ</t>
+   1.5 กดปุ่ม Accept
+   1.6 กดปุ่ม Check in/Check out
+   1.7 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 3
+   1.8 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาออกงานซ้ำสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน", Work Time : "วันที่ขณะทำการทดสอบ",
+ "เวลาขณะทำการทดสอบ", Working : "Check - In", Status : "Late"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน", Work Time : "วันที่ขณะทำการทดสอบ",
+ "เวลาขณะทำการทดสอบ", Working :  มากกว่าหรือน้อยกว่า "8:00 hrs.", Status : "Unfinished Work"
+   1.6 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.7 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.8 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน", Work Time : "วันที่ขณะทำการทดสอบ"
+"เวลาขณะทำการทดสอบ", Working :  มากกว่าหรือน้อยกว่า "8:00 hrs.", Status : "Unfinished Work"</t>
+    </r>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
+สามารถค้นหาการลงเวลาเข้างาน - ออกงานได้</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามวันที่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม Check In/Check Out
+    1.2 กรอกข้อมูลตาม Check list
+    1.3 กดปุ่ม Search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามเดือนสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม Check In/Check Out
+    1.2 กรอกข้อมูลตาม Check list
+    1.3 กดปุ่ม Search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามปีสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม Check In/Check Out
+    1.2 กรอกข้อมูลตาม Check list
+    1.3 กดปุ่ม Search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามวันที่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Date : 14-09-2021 to 14-09-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของวันที่ 14-09-2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามวันที่สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Date : 14-09-2021 to 14-09-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของวันที่ 14-09-2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามเดือนสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Date : 01-09-2021 to 30-09-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของวันที่ 01-09-2021 to 30-09-2021
+หรือ เดือนกันยายน</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามปีสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Date : 01-01-2021 to 31-12-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของวันที่ 01-01-2021 to 31-12-2021
+หรือของปี ค.ศ. 2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานค้นหาตามปีสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Date : 01-01-2021 to 31-12-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของวันที่ 01-01-2021 to 31-12-2021
+หรือของปี ค.ศ. 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. HR ค้นหาตามรายชื่อสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม Check In/Check Out
+    1.2 กรอกข้อมูลตาม Check list
+    1.3 กดปุ่ม Search</t>
+    </r>
+  </si>
+  <si>
+    <t>Staff : IT ROLE TESTING
+Date : 01-09-2021 to 30-09-2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. HR ค้นหาตามรายชื่อสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Staff : IT ROLE TESTING, Date : Date : 01-09-2021 to 30-09-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของผู้ใช้ "IT ROLE TESTING"
+และแสดงข้อมูลการลงเวลางานของวันที่ Date : 01-09-2021 to 30-09-2021</t>
+    </r>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
+สามารถแก้ไขข้อมูลการลงเวลาเข้างาน - ออกงานได้</t>
+  </si>
+  <si>
+    <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
+สามารถดาวน์โหลดไฟล์การเข้างาน - ออกงานได้</t>
+  </si>
+  <si>
+    <t>ผู้ใช้ต้องผ่านกระบวนการเข้าสู่ระบบในสถานะฝ่ายบุคคล (HR) แล้ว
+ผู้ใช้ต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลงเวลาเข้างาน - ออกงาน</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. HR ดาวน์โหลดเอกสารสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม Check In/Check Out
+    1.2 กรอกข้อมูลตาม Check list
+    1.3 กดปุ่ม Search
+    1.4 กดปุ่ม Print PDF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. HR ดาวน์โหลดเอกสารสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Staff : IT ROLE TESTING, Date : Date : 01-09-2021 to 30-09-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของผู้ใช้ "IT ROLE TESTING"
+และแสดงข้อมูลการลงเวลางานของวันที่ Date : 01-09-2021 to 30-09-2021
+    1.4 ระบบดาวน์โหลดไฟล์ โดยไฟล์ชื่อ "Checklist.pdf" และข้อมูลข้างในไฟล์แสดงผลของผู้ใช้
+"IT ROLE TESTING" และ Date : 01-09-2021 to 30-09-2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานดาวน์โหลดเอกสารสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม Check In/Check Out
+    1.2 กรอกข้อมูลตาม Check list
+    1.3 กดปุ่ม Search
+    1.4 กดปุ่ม Print PDF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานดาวน์โหลดเอกสารสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Date : Date : 01-09-2021 to 30-09-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของผู้ใช้ของวันที่
+Date : 01-09-2021 to 30-09-2021
+    1.4 ระบบดาวน์โหลดไฟล์ โดยไฟล์ชื่อ "Checklist.pdf" และข้อมูลข้างในไฟล์แสดงผลของผู้ใช้
+"IT ROLE TESTING" และ Date : 01-09-2021 to 30-09-2021</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานดาวน์โหลดเอกสารสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) และแสดงข้อมูลดังนี้
+Date : Date : 01-09-2021 to 30-09-2021
+    1.3 ระบบแสดงข้อมูลการลงเวลางานทั้งหมดของผู้ใช้ของวันที่
+Date : 01-09-2021 to 30-09-2021
+    1.4 ระบบไม่สามารถดาวน์โหลดไฟล์</t>
+    </r>
+  </si>
+  <si>
+    <t>ใช้การทดสอบแบบ Manual Testing</t>
+  </si>
+  <si>
+    <t>Date of Test : 11-10-2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานไม่สามารถลงเวลาเข้างานล่วงหน้าภายในวันทำงานได้
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานไม่สามารถลงเวลาเข้างานล่วงหน้าภายในวันทำงานได้</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.2 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานไม่สามารถลงเวลาเข้างานล่วงหน้าภายในวันทำงานได้</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!" ,
+"Can't Check-in In Future."</t>
+    </r>
+  </si>
+  <si>
+    <t>Version : v2.2</t>
+  </si>
+  <si>
+    <t>1. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+2. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+3. Check : Check-Out
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานลงเวลาออกงานสำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -924,100 +2092,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. พนักงานลงเวลาออกงาน Finished Work
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
-User : "test_it_roles", Type : "ออกงาน",
-Work Time : "21-Sep-2021", "18.00", "TC-CHECK-008"
-Working : "8:00 hrs.", Status : "Finished Work"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1. พนักงานลงเวลาออกงาน Unfinished Work
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
-User : "test_it_roles", Type : "ออกงาน",
-Work Time : "21-Sep-2021", "15.00", "TC-CHECK-009"
-Working : "5:00 hrs.", Status : "Unfinished Work"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาเข้างานย้อนหลัง</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!" ,
-"Can't Check-in In Last."</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Check : Check-IN
-    Date : 21-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-011
-2. Check : Check-Out
-    Date : 21-09-2021
-    Time : 19:00
-    Detail : TC-CHECK-011</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงานย้อนหลังภายในวันทำงาน</t>
+      <t>1. พนักงานลงเวลาออกงานสำเร็จ</t>
     </r>
     <r>
       <rPr>
@@ -1030,90 +2105,117 @@
    1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
    1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
 User : "test_it_roles", Type : "เข้างาน",
-Work Time : "21-Sep-2021", "9.00", "TC-CHECK-011"
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
 Working : "Check - In", Status : "Late"
    1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
    1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
    1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
+Working : "Check - In", Status : "Late"
+   1.6 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.7 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.8 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
 User : "test_it_roles", Type : "ออกงาน",
-Work Time : "21-Sep-2021", "19.00", "TC-CHECK-009"
-Working : "9:00 hrs.", Status : "Finished Work"</t>
-    </r>
-  </si>
-  <si>
-    <t>พนักงานลงเวลาออกงาน</t>
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
+Working : น้อยกว่า "8:00 hrs.", Status : "Unfinished Work"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. พนักงานลงเวลาออกงานสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.2 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "15:24"
+Working : "Check - In", Status : "Late"
+   1.3 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.4 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.5 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "เข้างาน",
+Work Time : "11-Oct-2021", "15:25"
+Working : "Check - In", Status : "Late"
+   1.6 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
+   1.7 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+   1.8 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_it_roles", Type : "ออกงาน",
+Work Time : "11-Oct-2021", "15:26"
+Working : "00:01 hrs.", Status : "Unfinished Work"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานไม่ระบุเหตุผลในการลงเวลาออกงาน </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">พนักงานไม่ระบุเหตุผลในการลงเวลาเข้างาน </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Negative Case)</t>
+    </r>
   </si>
   <si>
     <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
-ซึ่งสามารถลงเวลาออกงานได้</t>
-  </si>
-  <si>
-    <t>1. Check : Check-IN
-    Date : 20-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-015
-2. Check : Check-IN
-    Date : 20-09-2021
-    Time : 9:00
-    Detail : TC-CHECK-015
-3. Check : Check-Out
-    Date : 20-09-2021
-    Time : 19:00
-    Detail : TC-CHECK-015</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
-   1.2 กดปุ่ม Accept
-   1.3 กดปุ่ม Check in/Check out
-   1.4 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
-   1.5 กดปุ่ม Accept
-   1.6 กดปุ่ม Check in/Check out
-   1.7 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 2
-   1.8 กดปุ่ม Accept</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> พนักงานลงเวลาออกงาน</t>
-  </si>
-  <si>
-    <t>เป็นส่วนหนึ่งในการลงเวลาในการเข้างาน - ออกงาน
-เมื่อพนักงานไม่มีการลงเวลาเข้างาน
-ซึ่งสามารถลงเวลาออกงานได้</t>
+เมื่อลงเวลาทำงานที่ไม่ใช่เวลาปัจจุบัน
+ต้องมีการระบุเหตุผล / คำอธิบายประกอบการลงเวลางาน
+หากไม่ได้ระบุเหตุผลจะไม่สามารถลงเวลาเข้างานได้</t>
+  </si>
+  <si>
+    <t>ผู้ใช้ต้องผ่านกระบวนการเข้าสู่ระบบใน TC-CHECK-000 แล้ว
+ผู้ใช้ต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลงเวลาเข้างาน - ออกงาน
+กำหนดเวลาเข้างานน้อยกว่าเวลาปัจจุบัน 2 ชั่วโมง</t>
+  </si>
+  <si>
+    <t>ผู้ใช้ต้องผ่านกระบวนการเข้าสู่ระบบใน TC-CHECK-000 แล้ว
+ผู้ใช้ต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลงเวลาเข้างาน - ออกงาน
+กำหนดเวลาออกงานน้อยกว่าเวลาปัจจุบัน 2 ชั่วโมง</t>
+  </si>
+  <si>
+    <t>Check : Check-In
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาก่อนขณะทำการทดสอบ</t>
   </si>
   <si>
     <t>Check : Check-Out
-Date : 20-09-2021
-Time : 09:00
-Detail : TC-CHECK-016</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงาน</t>
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาก่อนขณะทำการทดสอบ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานไม่ระบุเหตุผลในการลงเวลาเข้างาน</t>
     </r>
     <r>
       <rPr>
@@ -1128,81 +2230,15 @@
     </r>
   </si>
   <si>
-    <t>Check : Check-Out
-Date : 21-09-2021
-Time : 19:00
-Detail : TC-CHECK-010</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงานล่วงหน้าภายในวันทำงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 กรอกข้อมูลตามที่ระบุใน Input Data ชุดที่ 1
-   1.2 กดปุ่ม Accept
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงานล่วงหน้าภายในวันทำงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!",
-"Can't Check-out In Future."</t>
-    </r>
-  </si>
-  <si>
-    <t>การแจ้งเตือน</t>
-  </si>
-  <si>
-    <t>TC-CHECK-017</t>
-  </si>
-  <si>
-    <t>Check : Check-Out
-Date : 21-09-2021
-Time : 19:00
-Detail : TC-CHECK-012</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานลงเวลาออกงานล่วงหน้า</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานไม่ระบุเหตุผลในการลงเวลาออกงาน</t>
     </r>
     <r>
       <rPr>
@@ -1225,36 +2261,203 @@
         <rFont val="TH Sarabun New"/>
         <family val="2"/>
       </rPr>
-      <t>1. พนักงานลงเวลาออกงานล่วงหน้า</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
-   1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!",
-"Can't Check-out In Future."</t>
-    </r>
-  </si>
-  <si>
-    <t>พนักงานลืมระบุเหตุผลในการลงเวลาเข้างาน</t>
-  </si>
-  <si>
-    <t>TC-CHECK-018</t>
-  </si>
-  <si>
-    <t>พนักงานลืมระบุเหตุผลในการลงเวลาออกงาน</t>
+      <t>1. พนักงานไม่ระบุเหตุผลในการลงเวลาเข้างาน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+    1.2 ระบบแสดงการแจ้งเตือน "กรุณาระบุเหตุผลการลงเวลาย้อนหลังมากกว่า 10 ตัวอักษร"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานไม่ระบุเหตุผลในการลงเวลาออกงาน</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+    1.2 ระบบแสดงการแจ้งเตือน "กรุณาระบุเหตุผลการลงเวลาย้อนหลังมากกว่า 10 ตัวอักษร"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานกด Cancel สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 กรอกข้อมูลตามที่ระบุใน Input Data
+   1.2 กดปุ่ม Cancel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานกด Cancel สำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data
+    1.2 เว็บไซต์ Reload หน้าเพจ และลบข้อมูลทั้งหมดออก</t>
+    </r>
+  </si>
+  <si>
+    <t>ผู้ใช้ต้องผ่านกระบวนการเข้าสู่ระบบในสถานะแอดมิน (Admin) แล้ว
+ผู้ใช้ต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลงเวลาเข้างาน - ออกงาน
+และแก้ไขลงเวลาเข้างานหลังจากเวลาขณะทดสอบ 2 ชั่วโมง</t>
+  </si>
+  <si>
+    <t>1. Check : Check-IN
+    Date : วันที่ขณะทำการทดสอบ
+    Time : เวลาขณะทำการทดสอบ
+2. Check : Check-IN
+    Time : เวลาหลังจากขณะทำการทดสอบ 2 ชั่วโมง</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Admin แก้ไขข้อมูลเวลาสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 กดปุ่ม Check In/Check Out
+    1.2 กรอกข้อมูลตาม Input Data ชุดที่ 1
+    1.3 กดปุ่ม Accept
+    1.4 กดปุ่ม Check list
+    1.5 กดปุ่ม Edit และ กรอกข้อมูลตาม Input Data ชุดที่ 2
+    1.6 กดปุ่ม Accept</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Admin แก้ไขข้อมูลเวลาสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data ชุดที่ 1
+    1.3 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_admin_role", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาขณะทำการทดสอบ"
+Working : "Check - In", Status : "Late"
+    1.4 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.5 ระบบแสดงหน้าจอสำหรับการแก้ไขข้อมูล และแสดงข้อมูลที่กรอกใน Input Data ชุดที่ 2
+    1.6 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_admin_role", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาหลังจากขณะทำการทดสอบ 2 ชั่วโมง"
+Working : "Check - In", Status : "Late"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. Admin แก้ไขข้อมูลเวลาสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    1.1 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.2 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002) และแสดงข้อมูลที่กรอกใน Input Data ชุดที่ 1
+    1.3 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_admin_role", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "02:15"
+Working : "Check - In", Status : "Late"
+    1.4 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003)
+    1.5 ระบบแสดงหน้าจอสำหรับการแก้ไขข้อมูล และแสดงข้อมูลที่กรอกใน Input Data ชุดที่ 2
+    1.6 ระบบแสดงข้อมูลสำหรับการลงเวลาเข้างาน-ออกงาน (CHECK003) แสดงข้อมูลดังต่อไปนี้
+User : "test_admin_role", Type : "เข้างาน",
+Work Time : "วันที่ขณะทำการทดสอบ", "เวลาหลังจากขณะทำการทดสอบ 2 ชั่วโมง"
+Working : "Check - In", Status : "Late"</t>
+    </r>
+  </si>
+  <si>
+    <t>ทดสอบอันนี้อีกรอบ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,17 +2492,11 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="TH Sarabun New"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,6 +2530,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,7 +2592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1408,25 +2623,38 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -1453,10 +2681,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>759460</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>79102</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:rowOff>474890</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3638047" cy="799642"/>
     <xdr:sp macro="" textlink="">
@@ -1472,7 +2700,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31268035" y="1495425"/>
+          <a:off x="36283627" y="1541690"/>
           <a:ext cx="3638047" cy="799642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1575,50 +2803,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1219200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3200401</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>3266683</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="รูปภาพ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676C967A-0C71-4530-938C-6BA5CC435EE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19156681" y="22905720"/>
-          <a:ext cx="2743200" cy="2047483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1922,11 +3106,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -1944,14 +3128,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
@@ -1962,10 +3146,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10"/>
@@ -2072,213 +3256,227 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="126" x14ac:dyDescent="0.6">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="126" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="252" x14ac:dyDescent="0.6">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I12" s="13"/>
+        <v>125</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -2291,299 +3489,644 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:12" ht="84" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:12" ht="252" x14ac:dyDescent="0.6">
       <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>119</v>
+        <v>34</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="168" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:12" ht="252" x14ac:dyDescent="0.6">
       <c r="A15" s="8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="13"/>
+        <v>127</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="168" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="1:11" ht="84" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:11" ht="252" x14ac:dyDescent="0.6">
       <c r="A17" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I17" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" ht="252" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:11" ht="84" x14ac:dyDescent="0.6">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="84" x14ac:dyDescent="0.6">
       <c r="A19" s="8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:11" ht="168" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:11" ht="357" x14ac:dyDescent="0.6">
       <c r="A20" s="8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+        <v>153</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:11" ht="252" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:11" ht="378" x14ac:dyDescent="0.6">
       <c r="A21" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+        <v>182</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" ht="252" x14ac:dyDescent="0.6">
-      <c r="A22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A23" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+    <row r="23" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.6">
+      <c r="A23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.6">
       <c r="A24" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+        <v>89</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A25" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.6">
+      <c r="A26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="F26" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.6">
+      <c r="A28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" s="14" customFormat="1" ht="126" x14ac:dyDescent="0.6">
+      <c r="A29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" ht="126" x14ac:dyDescent="0.6">
+      <c r="A30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A31" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="273" x14ac:dyDescent="0.6">
+      <c r="A32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="126" x14ac:dyDescent="0.6">
+      <c r="A33" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" ht="168" x14ac:dyDescent="0.6">
+      <c r="A34" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="168" x14ac:dyDescent="0.6">
+      <c r="A36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/UAT-Testcase-CheckList.xlsx
+++ b/UAT-Testcase-CheckList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD04E54-DC4E-481E-9267-725B95E3FB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB90FE6-0F91-434A-8CD1-C38DF7260B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Pre-Requisite</t>
-  </si>
-  <si>
     <t>Input Data</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Test by : นิภาภรณ์ ขันติกิจ</t>
   </si>
   <si>
     <t>Result
@@ -121,18 +115,6 @@
   </si>
   <si>
     <t>remark</t>
-  </si>
-  <si>
-    <t>Function Name : การทดสอบฟังก์ชันการลงเวลางาน  (Check List)</t>
-  </si>
-  <si>
-    <t>Function ID : UAT-001</t>
-  </si>
-  <si>
-    <t>Module Name : Check-in/Check-out</t>
-  </si>
-  <si>
-    <t>Descriptuon : สามารถลงเวลาทำงานได้</t>
   </si>
   <si>
     <t>ลงเวลาเข้างาน</t>
@@ -636,18 +618,6 @@
     <t>TC-CHECK-024</t>
   </si>
   <si>
-    <t>TC-CHECK-026</t>
-  </si>
-  <si>
-    <t>TC-CHECK-027</t>
-  </si>
-  <si>
-    <t>TC-CHECK-028</t>
-  </si>
-  <si>
-    <t>TC-CHECK-029</t>
-  </si>
-  <si>
     <t>ค้นหา</t>
   </si>
   <si>
@@ -660,9 +630,6 @@
     <t>พนักงานค้นหาตามปีสำเร็จ</t>
   </si>
   <si>
-    <t>TC-CHECK-030</t>
-  </si>
-  <si>
     <t>HR ค้นหาตามรายชื่อสำเร็จ</t>
   </si>
   <si>
@@ -672,19 +639,10 @@
     <t>Date : 01-09-2021 to 30-09-2021</t>
   </si>
   <si>
-    <t>TC-CHECK-031</t>
-  </si>
-  <si>
-    <t>TC-CHECK-032</t>
-  </si>
-  <si>
     <t>Date : 14-09-2021 to 14-09-2021</t>
   </si>
   <si>
     <t>ดาวน์โหลดเอกสาร</t>
-  </si>
-  <si>
-    <t>TC-CHECK-033</t>
   </si>
   <si>
     <t>พนักงานดาวน์โหลดเอกสารสำเร็จ</t>
@@ -806,12 +764,6 @@
 Work Time : "11-Oct-2021", "08:17", "TC-CHECK-002"
 Working : "Check - In", Status : "On Time"</t>
     </r>
-  </si>
-  <si>
-    <t>Check : Check-IN
-Date : วันที่ขณะทำการทดสอบ
-Time : เวลาขณะทำการทดสอบ
-Detail : TC-CHECK-004</t>
   </si>
   <si>
     <t>Check : Check-IN
@@ -1983,9 +1935,6 @@
     <t>ใช้การทดสอบแบบ Manual Testing</t>
   </si>
   <si>
-    <t>Date of Test : 11-10-2021</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">พนักงานไม่สามารถลงเวลาเข้างานล่วงหน้าภายในวันทำงานได้
 </t>
@@ -2046,9 +1995,6 @@
    1.2 ระบบแสดงหน้าจอ pop-up และข้อความ "Here's a message!" ,
 "Can't Check-in In Future."</t>
     </r>
-  </si>
-  <si>
-    <t>Version : v2.2</t>
   </si>
   <si>
     <t>1. Check : Check-IN
@@ -2452,12 +2398,66 @@
   <si>
     <t>ทดสอบอันนี้อีกรอบ</t>
   </si>
+  <si>
+    <t>Check : Check-IN
+Date : วันที่ขณะทำการทดสอบ
+Time : เวลาขณะทำการทดสอบ
+Detail : TC-CHECK-003</t>
+  </si>
+  <si>
+    <t>Prerequisite</t>
+  </si>
+  <si>
+    <t>TC-CHECK-003</t>
+  </si>
+  <si>
+    <t>TC-CHECK-006</t>
+  </si>
+  <si>
+    <t>TC-CHECK-008</t>
+  </si>
+  <si>
+    <t>TC-CHECK-013</t>
+  </si>
+  <si>
+    <t>TC-CHECK-017</t>
+  </si>
+  <si>
+    <t>TC-CHECK-019</t>
+  </si>
+  <si>
+    <t>TC-CHECK-023</t>
+  </si>
+  <si>
+    <t>TC-CHECK-025</t>
+  </si>
+  <si>
+    <t>รหัสทดสอบ : UAT-001</t>
+  </si>
+  <si>
+    <t>ชื่อการทดสอบ : การทดสอบระบบลงเวลาทำงาน</t>
+  </si>
+  <si>
+    <t>คำอธิบาย : สามารถลงเวลาทำงาน และสามารถตรวจสอบการลงเวลาทำงานได้</t>
+  </si>
+  <si>
+    <t>วันที่ทดสอบ: 11-10-2021</t>
+  </si>
+  <si>
+    <t>v.20200201</t>
+  </si>
+  <si>
+    <t>ผู้ทดสอบ : นิภาภรณ์ ขันติกิจ</t>
+  </si>
+  <si>
+    <t>เวอร์ชัน</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2495,8 +2495,15 @@
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2551,8 +2558,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2579,20 +2592,48 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2618,7 +2659,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2654,7 +2694,28 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -3108,9 +3169,9 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -3127,31 +3188,31 @@
     <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="30"/>
       <c r="G1" s="10" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="11"/>
+        <v>203</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>201</v>
+      </c>
       <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="42" x14ac:dyDescent="0.6">
@@ -3165,33 +3226,33 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3206,38 +3267,38 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3253,31 +3314,31 @@
     </row>
     <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.6">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>109</v>
+        <v>47</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -3285,31 +3346,31 @@
     </row>
     <row r="7" spans="1:12" ht="126" x14ac:dyDescent="0.6">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>114</v>
+        <v>79</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3317,31 +3378,31 @@
     </row>
     <row r="8" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>179</v>
+        <v>189</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>163</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -3349,31 +3410,31 @@
     </row>
     <row r="9" spans="1:12" ht="126" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>117</v>
+        <v>81</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -3381,31 +3442,31 @@
     </row>
     <row r="10" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -3413,31 +3474,31 @@
     </row>
     <row r="11" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>124</v>
+        <v>190</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3445,38 +3506,38 @@
     </row>
     <row r="12" spans="1:12" ht="252" x14ac:dyDescent="0.6">
       <c r="A12" s="8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>136</v>
+        <v>110</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3491,255 +3552,255 @@
     </row>
     <row r="14" spans="1:12" ht="252" x14ac:dyDescent="0.6">
       <c r="A14" s="8" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>138</v>
+        <v>111</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="252" x14ac:dyDescent="0.6">
       <c r="A15" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>141</v>
+      <c r="H15" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="84" x14ac:dyDescent="0.6">
       <c r="A16" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>144</v>
+      <c r="G16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="252" x14ac:dyDescent="0.6">
       <c r="A17" s="8" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>132</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="84" x14ac:dyDescent="0.6">
       <c r="A18" s="8" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>132</v>
+        <v>116</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="84" x14ac:dyDescent="0.6">
       <c r="A19" s="8" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>151</v>
+        <v>135</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="357" x14ac:dyDescent="0.6">
       <c r="A20" s="8" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>154</v>
+        <v>138</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="378" x14ac:dyDescent="0.6">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3752,71 +3813,71 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:11" s="13" customFormat="1" ht="84" x14ac:dyDescent="0.6">
       <c r="A23" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>186</v>
+        <v>46</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+        <v>173</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:11" ht="84" x14ac:dyDescent="0.6">
       <c r="A24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>185</v>
+        <v>193</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+        <v>174</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3831,258 +3892,258 @@
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.6">
       <c r="A26" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A27" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
+      <c r="A27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:11" s="13" customFormat="1" ht="105" x14ac:dyDescent="0.6">
       <c r="A28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="F28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="1:11" s="14" customFormat="1" ht="126" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:11" s="13" customFormat="1" ht="126" x14ac:dyDescent="0.6">
       <c r="A29" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+        <v>51</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" ht="126" x14ac:dyDescent="0.6">
       <c r="A30" s="8" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.6">
-      <c r="A31" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
+      <c r="A31" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
     </row>
     <row r="32" spans="1:11" ht="273" x14ac:dyDescent="0.6">
       <c r="A32" s="8" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="13"/>
+        <v>181</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="12"/>
       <c r="K32" s="8" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="126" x14ac:dyDescent="0.6">
       <c r="A33" s="8" t="s">
-        <v>102</v>
+        <v>195</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="168" x14ac:dyDescent="0.6">
       <c r="A34" s="8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="12"/>
       <c r="K34" s="8" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A35" s="5" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4097,41 +4158,42 @@
     </row>
     <row r="36" spans="1:11" ht="168" x14ac:dyDescent="0.6">
       <c r="A36" s="8" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J36" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="12"/>
       <c r="K36" s="8" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
